--- a/INTLINE/data/158/METI/IIPD/ngsm1e.xlsx
+++ b/INTLINE/data/158/METI/IIPD/ngsm1e.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B648F085-5AAE-4132-8B99-793CDB77356E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D6779F-81F1-4AC2-8B11-C9ACFEDEC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{2F0E1B41-3778-4786-8A00-BCC6617B0C28}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11325" xr2:uid="{2A702242-B60B-4121-8201-38E32DF0F29C}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Ratio" sheetId="2" r:id="rId1"/>
@@ -481,22 +481,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8335C8C0-DFF9-4EFD-82B7-B7A4A33D6C7E}">
-  <dimension ref="A1:DH28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10394405-F0D2-4E3A-B408-84AB1C45B20A}">
+  <dimension ref="A1:DJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="112" width="12.58203125" customWidth="1"/>
+    <col min="1" max="114" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -827,8 +827,14 @@
       <c r="DH2">
         <v>2022000101</v>
       </c>
+      <c r="DI2">
+        <v>2022000202</v>
+      </c>
+      <c r="DJ2">
+        <v>2022000303</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1165,8 +1171,14 @@
       <c r="DH3">
         <v>202201</v>
       </c>
+      <c r="DI3">
+        <v>202202</v>
+      </c>
+      <c r="DJ3">
+        <v>202203</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1100000000</v>
       </c>
@@ -1465,46 +1477,52 @@
         <v>92.7</v>
       </c>
       <c r="CV4">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="CW4">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="CX4">
-        <v>98.2</v>
+        <v>97</v>
       </c>
       <c r="CY4">
-        <v>99.3</v>
+        <v>97.5</v>
       </c>
       <c r="CZ4">
-        <v>92.5</v>
+        <v>91.9</v>
       </c>
       <c r="DA4">
-        <v>98.2</v>
+        <v>96.5</v>
       </c>
       <c r="DB4">
-        <v>94.9</v>
+        <v>94.6</v>
       </c>
       <c r="DC4">
-        <v>91.2</v>
+        <v>92</v>
       </c>
       <c r="DD4">
-        <v>84.5</v>
+        <v>84.8</v>
       </c>
       <c r="DE4">
-        <v>89.7</v>
+        <v>91.3</v>
       </c>
       <c r="DF4">
-        <v>96.9</v>
+        <v>96.5</v>
       </c>
       <c r="DG4">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="DH4">
-        <v>93.4</v>
+        <v>92.8</v>
+      </c>
+      <c r="DI4">
+        <v>94.2</v>
+      </c>
+      <c r="DJ4">
+        <v>92.7</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1101000000</v>
       </c>
@@ -1803,46 +1821,52 @@
         <v>93.9</v>
       </c>
       <c r="CV5">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="CW5">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="CX5">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
       <c r="CY5">
+        <v>97</v>
+      </c>
+      <c r="CZ5">
+        <v>96.4</v>
+      </c>
+      <c r="DA5">
         <v>97.3</v>
       </c>
-      <c r="CZ5">
-        <v>96</v>
-      </c>
-      <c r="DA5">
-        <v>98.5</v>
-      </c>
       <c r="DB5">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="DC5">
-        <v>95.2</v>
+        <v>97</v>
       </c>
       <c r="DD5">
-        <v>96.1</v>
+        <v>97.9</v>
       </c>
       <c r="DE5">
-        <v>96.4</v>
+        <v>96.6</v>
       </c>
       <c r="DF5">
-        <v>99.4</v>
+        <v>98.7</v>
       </c>
       <c r="DG5">
         <v>98.3</v>
       </c>
       <c r="DH5">
-        <v>94.3</v>
+        <v>94.5</v>
+      </c>
+      <c r="DI5">
+        <v>93.9</v>
+      </c>
+      <c r="DJ5">
+        <v>94.4</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1101100000</v>
       </c>
@@ -2141,46 +2165,52 @@
         <v>91.3</v>
       </c>
       <c r="CV6">
-        <v>93.5</v>
+        <v>94.2</v>
       </c>
       <c r="CW6">
-        <v>95.1</v>
+        <v>94.8</v>
       </c>
       <c r="CX6">
-        <v>98.2</v>
+        <v>96</v>
       </c>
       <c r="CY6">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="CZ6">
+        <v>96.8</v>
+      </c>
+      <c r="DA6">
+        <v>97.3</v>
+      </c>
+      <c r="DB6">
+        <v>98.5</v>
+      </c>
+      <c r="DC6">
+        <v>96.7</v>
+      </c>
+      <c r="DD6">
+        <v>99.5</v>
+      </c>
+      <c r="DE6">
         <v>97.5</v>
       </c>
-      <c r="DA6">
-        <v>98</v>
-      </c>
-      <c r="DB6">
-        <v>99.3</v>
-      </c>
-      <c r="DC6">
-        <v>95.4</v>
-      </c>
-      <c r="DD6">
-        <v>99.9</v>
-      </c>
-      <c r="DE6">
-        <v>95.8</v>
-      </c>
       <c r="DF6">
-        <v>98.4</v>
+        <v>99.1</v>
       </c>
       <c r="DG6">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="DH6">
-        <v>92.2</v>
+        <v>92.8</v>
+      </c>
+      <c r="DI6">
+        <v>92.6</v>
+      </c>
+      <c r="DJ6">
+        <v>92.1</v>
       </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1101200000</v>
       </c>
@@ -2479,46 +2509,52 @@
         <v>94.1</v>
       </c>
       <c r="CV7">
-        <v>98.8</v>
+        <v>98.1</v>
       </c>
       <c r="CW7">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="CX7">
-        <v>100.7</v>
+        <v>99.9</v>
       </c>
       <c r="CY7">
-        <v>100.7</v>
+        <v>99.8</v>
       </c>
       <c r="CZ7">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="DA7">
-        <v>99.4</v>
+        <v>99</v>
       </c>
       <c r="DB7">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="DC7">
-        <v>97.2</v>
+        <v>97.8</v>
       </c>
       <c r="DD7">
-        <v>93.4</v>
+        <v>94.5</v>
       </c>
       <c r="DE7">
-        <v>93.7</v>
+        <v>96.3</v>
       </c>
       <c r="DF7">
-        <v>97.8</v>
+        <v>98.3</v>
       </c>
       <c r="DG7">
-        <v>96.1</v>
+        <v>97.3</v>
       </c>
       <c r="DH7">
-        <v>97.6</v>
+        <v>97.5</v>
+      </c>
+      <c r="DI7">
+        <v>93.8</v>
+      </c>
+      <c r="DJ7">
+        <v>100.5</v>
       </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1102000000</v>
       </c>
@@ -2817,46 +2853,52 @@
         <v>87.3</v>
       </c>
       <c r="CV8">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="CW8">
-        <v>91.9</v>
+        <v>93.1</v>
       </c>
       <c r="CX8">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="CY8">
+        <v>93.7</v>
+      </c>
+      <c r="CZ8">
         <v>94.4</v>
       </c>
-      <c r="CZ8">
-        <v>97.7</v>
-      </c>
       <c r="DA8">
-        <v>97</v>
+        <v>94.2</v>
       </c>
       <c r="DB8">
-        <v>93</v>
+        <v>92.4</v>
       </c>
       <c r="DC8">
-        <v>91.9</v>
+        <v>92</v>
       </c>
       <c r="DD8">
+        <v>92.6</v>
+      </c>
+      <c r="DE8">
+        <v>89.9</v>
+      </c>
+      <c r="DF8">
+        <v>94.5</v>
+      </c>
+      <c r="DG8">
+        <v>93.8</v>
+      </c>
+      <c r="DH8">
+        <v>96</v>
+      </c>
+      <c r="DI8">
         <v>92.3</v>
       </c>
-      <c r="DE8">
-        <v>88.8</v>
-      </c>
-      <c r="DF8">
-        <v>93.4</v>
-      </c>
-      <c r="DG8">
-        <v>91.1</v>
-      </c>
-      <c r="DH8">
-        <v>95.8</v>
+      <c r="DJ8">
+        <v>88.7</v>
       </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1103000000</v>
       </c>
@@ -3155,46 +3197,52 @@
         <v>73.7</v>
       </c>
       <c r="CV9">
-        <v>79.900000000000006</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="CW9">
-        <v>80.599999999999994</v>
+        <v>80</v>
       </c>
       <c r="CX9">
-        <v>80.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="CY9">
-        <v>92.2</v>
+        <v>90.8</v>
       </c>
       <c r="CZ9">
-        <v>88.6</v>
+        <v>86.9</v>
       </c>
       <c r="DA9">
-        <v>87.5</v>
+        <v>86.7</v>
       </c>
       <c r="DB9">
-        <v>87.5</v>
+        <v>87.2</v>
       </c>
       <c r="DC9">
-        <v>82.8</v>
+        <v>85.8</v>
       </c>
       <c r="DD9">
-        <v>85.4</v>
+        <v>86.3</v>
       </c>
       <c r="DE9">
-        <v>87.7</v>
+        <v>87.9</v>
       </c>
       <c r="DF9">
         <v>92.6</v>
       </c>
       <c r="DG9">
-        <v>88.3</v>
+        <v>89.5</v>
       </c>
       <c r="DH9">
-        <v>94.9</v>
+        <v>93.7</v>
+      </c>
+      <c r="DI9">
+        <v>91.3</v>
+      </c>
+      <c r="DJ9">
+        <v>92.1</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1104000000</v>
       </c>
@@ -3493,46 +3541,52 @@
         <v>98.5</v>
       </c>
       <c r="CV10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="CW10">
-        <v>108</v>
+        <v>107.2</v>
       </c>
       <c r="CX10">
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
       <c r="CY10">
-        <v>116.5</v>
+        <v>114.5</v>
       </c>
       <c r="CZ10">
-        <v>110.6</v>
+        <v>110.1</v>
       </c>
       <c r="DA10">
-        <v>116.6</v>
+        <v>115</v>
       </c>
       <c r="DB10">
-        <v>114.4</v>
+        <v>113.5</v>
       </c>
       <c r="DC10">
-        <v>112</v>
+        <v>112.2</v>
       </c>
       <c r="DD10">
-        <v>111.5</v>
+        <v>112.2</v>
       </c>
       <c r="DE10">
-        <v>113.7</v>
+        <v>113.4</v>
       </c>
       <c r="DF10">
-        <v>113.1</v>
+        <v>113.5</v>
       </c>
       <c r="DG10">
-        <v>110.2</v>
+        <v>111.8</v>
       </c>
       <c r="DH10">
-        <v>110.8</v>
+        <v>110.9</v>
+      </c>
+      <c r="DI10">
+        <v>109.4</v>
+      </c>
+      <c r="DJ10">
+        <v>110.1</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1105000000</v>
       </c>
@@ -3831,46 +3885,52 @@
         <v>99</v>
       </c>
       <c r="CV11">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="CW11">
-        <v>99.7</v>
+        <v>100.8</v>
       </c>
       <c r="CX11">
-        <v>104.5</v>
+        <v>104</v>
       </c>
       <c r="CY11">
+        <v>103.3</v>
+      </c>
+      <c r="CZ11">
+        <v>104.3</v>
+      </c>
+      <c r="DA11">
+        <v>105.6</v>
+      </c>
+      <c r="DB11">
+        <v>106.3</v>
+      </c>
+      <c r="DC11">
+        <v>107</v>
+      </c>
+      <c r="DD11">
+        <v>104.6</v>
+      </c>
+      <c r="DE11">
+        <v>102.7</v>
+      </c>
+      <c r="DF11">
+        <v>105.4</v>
+      </c>
+      <c r="DG11">
+        <v>103.7</v>
+      </c>
+      <c r="DH11">
         <v>103</v>
       </c>
-      <c r="CZ11">
-        <v>105</v>
-      </c>
-      <c r="DA11">
-        <v>106.7</v>
-      </c>
-      <c r="DB11">
-        <v>107.3</v>
-      </c>
-      <c r="DC11">
-        <v>108.2</v>
-      </c>
-      <c r="DD11">
-        <v>104</v>
-      </c>
-      <c r="DE11">
-        <v>101.3</v>
-      </c>
-      <c r="DF11">
-        <v>105.2</v>
-      </c>
-      <c r="DG11">
-        <v>102.5</v>
-      </c>
-      <c r="DH11">
-        <v>103.3</v>
+      <c r="DI11">
+        <v>99.1</v>
+      </c>
+      <c r="DJ11">
+        <v>95.6</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1106000000</v>
       </c>
@@ -4169,46 +4229,52 @@
         <v>96.6</v>
       </c>
       <c r="CV12">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="CW12">
-        <v>103.7</v>
+        <v>102.6</v>
       </c>
       <c r="CX12">
-        <v>102.7</v>
+        <v>100.3</v>
       </c>
       <c r="CY12">
-        <v>106.2</v>
+        <v>102.4</v>
       </c>
       <c r="CZ12">
-        <v>98.7</v>
+        <v>96.8</v>
       </c>
       <c r="DA12">
-        <v>100.8</v>
+        <v>98.8</v>
       </c>
       <c r="DB12">
-        <v>93.1</v>
+        <v>92.5</v>
       </c>
       <c r="DC12">
-        <v>84.6</v>
+        <v>85.4</v>
       </c>
       <c r="DD12">
-        <v>85.8</v>
+        <v>86.9</v>
       </c>
       <c r="DE12">
-        <v>96.7</v>
+        <v>92.1</v>
       </c>
       <c r="DF12">
-        <v>93.4</v>
+        <v>91.1</v>
       </c>
       <c r="DG12">
+        <v>91</v>
+      </c>
+      <c r="DH12">
+        <v>94.7</v>
+      </c>
+      <c r="DI12">
+        <v>90.8</v>
+      </c>
+      <c r="DJ12">
         <v>94.8</v>
       </c>
-      <c r="DH12">
-        <v>99.6</v>
-      </c>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1106100000</v>
       </c>
@@ -4507,46 +4573,52 @@
         <v>93.6</v>
       </c>
       <c r="CV13">
-        <v>107.4</v>
+        <v>105</v>
       </c>
       <c r="CW13">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="CX13">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="CY13">
-        <v>105.3</v>
+        <v>102.9</v>
       </c>
       <c r="CZ13">
-        <v>97.7</v>
+        <v>96.6</v>
       </c>
       <c r="DA13">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="DB13">
+        <v>90.8</v>
+      </c>
+      <c r="DC13">
+        <v>87</v>
+      </c>
+      <c r="DD13">
         <v>89.3</v>
       </c>
-      <c r="DC13">
-        <v>84.5</v>
-      </c>
-      <c r="DD13">
-        <v>86.1</v>
-      </c>
       <c r="DE13">
-        <v>94.3</v>
+        <v>92.4</v>
       </c>
       <c r="DF13">
-        <v>90.8</v>
+        <v>91.2</v>
       </c>
       <c r="DG13">
-        <v>87.6</v>
+        <v>89</v>
       </c>
       <c r="DH13">
-        <v>98.3</v>
+        <v>96</v>
+      </c>
+      <c r="DI13">
+        <v>92.9</v>
+      </c>
+      <c r="DJ13">
+        <v>96.5</v>
       </c>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1106200000</v>
       </c>
@@ -4845,46 +4917,52 @@
         <v>102</v>
       </c>
       <c r="CV14">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="CW14">
-        <v>113.4</v>
+        <v>109.4</v>
       </c>
       <c r="CX14">
-        <v>107.4</v>
+        <v>103.8</v>
       </c>
       <c r="CY14">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="CZ14">
-        <v>105.8</v>
+        <v>96.7</v>
       </c>
       <c r="DA14">
-        <v>109.2</v>
+        <v>100.5</v>
       </c>
       <c r="DB14">
-        <v>105.1</v>
+        <v>95.4</v>
       </c>
       <c r="DC14">
-        <v>86.3</v>
+        <v>81.8</v>
       </c>
       <c r="DD14">
-        <v>83.1</v>
+        <v>86.5</v>
       </c>
       <c r="DE14">
-        <v>97.7</v>
+        <v>90.2</v>
       </c>
       <c r="DF14">
-        <v>97.3</v>
+        <v>90</v>
       </c>
       <c r="DG14">
-        <v>109.3</v>
+        <v>96.6</v>
       </c>
       <c r="DH14">
-        <v>106.4</v>
+        <v>90.1</v>
+      </c>
+      <c r="DI14">
+        <v>86.8</v>
+      </c>
+      <c r="DJ14">
+        <v>93.3</v>
       </c>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1107000000</v>
       </c>
@@ -5183,46 +5261,52 @@
         <v>96.5</v>
       </c>
       <c r="CV15">
-        <v>96</v>
+        <v>98.4</v>
       </c>
       <c r="CW15">
-        <v>88.4</v>
+        <v>91.2</v>
       </c>
       <c r="CX15">
-        <v>99.3</v>
+        <v>101.1</v>
       </c>
       <c r="CY15">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="CZ15">
-        <v>79</v>
+        <v>80.7</v>
       </c>
       <c r="DA15">
-        <v>92.1</v>
+        <v>92.3</v>
       </c>
       <c r="DB15">
-        <v>92.8</v>
+        <v>90.2</v>
       </c>
       <c r="DC15">
-        <v>76.3</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="DD15">
-        <v>56.9</v>
+        <v>54.5</v>
       </c>
       <c r="DE15">
-        <v>69.900000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="DF15">
-        <v>96</v>
+        <v>95.3</v>
       </c>
       <c r="DG15">
-        <v>95.7</v>
+        <v>97.1</v>
       </c>
       <c r="DH15">
-        <v>80.900000000000006</v>
+        <v>82.9</v>
+      </c>
+      <c r="DI15">
+        <v>94</v>
+      </c>
+      <c r="DJ15">
+        <v>88.1</v>
       </c>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1108000000</v>
       </c>
@@ -5521,46 +5605,52 @@
         <v>92.2</v>
       </c>
       <c r="CV16">
+        <v>94.3</v>
+      </c>
+      <c r="CW16">
+        <v>92.8</v>
+      </c>
+      <c r="CX16">
+        <v>94.9</v>
+      </c>
+      <c r="CY16">
+        <v>94.9</v>
+      </c>
+      <c r="CZ16">
+        <v>95.2</v>
+      </c>
+      <c r="DA16">
+        <v>95.7</v>
+      </c>
+      <c r="DB16">
+        <v>92.8</v>
+      </c>
+      <c r="DC16">
+        <v>96.1</v>
+      </c>
+      <c r="DD16">
+        <v>85.8</v>
+      </c>
+      <c r="DE16">
+        <v>85.3</v>
+      </c>
+      <c r="DF16">
+        <v>91.6</v>
+      </c>
+      <c r="DG16">
+        <v>92.9</v>
+      </c>
+      <c r="DH16">
+        <v>94.2</v>
+      </c>
+      <c r="DI16">
         <v>94.6</v>
       </c>
-      <c r="CW16">
-        <v>91.6</v>
-      </c>
-      <c r="CX16">
-        <v>95.4</v>
-      </c>
-      <c r="CY16">
-        <v>95</v>
-      </c>
-      <c r="CZ16">
-        <v>95.6</v>
-      </c>
-      <c r="DA16">
-        <v>95.9</v>
-      </c>
-      <c r="DB16">
-        <v>92.7</v>
-      </c>
-      <c r="DC16">
-        <v>96.3</v>
-      </c>
-      <c r="DD16">
-        <v>85.9</v>
-      </c>
-      <c r="DE16">
-        <v>84.9</v>
-      </c>
-      <c r="DF16">
-        <v>91.7</v>
-      </c>
-      <c r="DG16">
-        <v>92.8</v>
-      </c>
-      <c r="DH16">
-        <v>94.5</v>
+      <c r="DJ16">
+        <v>88.9</v>
       </c>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1109000000</v>
       </c>
@@ -5859,46 +5949,52 @@
         <v>89.7</v>
       </c>
       <c r="CV17">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="CW17">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="CX17">
-        <v>96.5</v>
+        <v>95.9</v>
       </c>
       <c r="CY17">
-        <v>97</v>
+        <v>96.4</v>
       </c>
       <c r="CZ17">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="DA17">
-        <v>100</v>
+        <v>98.9</v>
       </c>
       <c r="DB17">
-        <v>96.6</v>
+        <v>95.8</v>
       </c>
       <c r="DC17">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="DD17">
-        <v>100</v>
+        <v>99.1</v>
       </c>
       <c r="DE17">
+        <v>96.8</v>
+      </c>
+      <c r="DF17">
+        <v>96</v>
+      </c>
+      <c r="DG17">
         <v>96.2</v>
       </c>
-      <c r="DF17">
-        <v>94.6</v>
-      </c>
-      <c r="DG17">
-        <v>95.1</v>
-      </c>
       <c r="DH17">
-        <v>93.1</v>
+        <v>93.3</v>
+      </c>
+      <c r="DI17">
+        <v>89.9</v>
+      </c>
+      <c r="DJ17">
+        <v>89.4</v>
       </c>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1111000000</v>
       </c>
@@ -6197,46 +6293,52 @@
         <v>88.6</v>
       </c>
       <c r="CV18">
+        <v>86.8</v>
+      </c>
+      <c r="CW18">
+        <v>83.4</v>
+      </c>
+      <c r="CX18">
+        <v>82.7</v>
+      </c>
+      <c r="CY18">
+        <v>84.9</v>
+      </c>
+      <c r="CZ18">
+        <v>85.7</v>
+      </c>
+      <c r="DA18">
+        <v>86.9</v>
+      </c>
+      <c r="DB18">
+        <v>86.2</v>
+      </c>
+      <c r="DC18">
+        <v>91</v>
+      </c>
+      <c r="DD18">
+        <v>92.1</v>
+      </c>
+      <c r="DE18">
+        <v>91.4</v>
+      </c>
+      <c r="DF18">
         <v>88.4</v>
       </c>
-      <c r="CW18">
-        <v>83.2</v>
-      </c>
-      <c r="CX18">
-        <v>81.7</v>
-      </c>
-      <c r="CY18">
-        <v>83.8</v>
-      </c>
-      <c r="CZ18">
-        <v>83.4</v>
-      </c>
-      <c r="DA18">
-        <v>85.6</v>
-      </c>
-      <c r="DB18">
-        <v>81.7</v>
-      </c>
-      <c r="DC18">
-        <v>91.1</v>
-      </c>
-      <c r="DD18">
-        <v>93.3</v>
-      </c>
-      <c r="DE18">
-        <v>94.5</v>
-      </c>
-      <c r="DF18">
-        <v>89</v>
-      </c>
       <c r="DG18">
-        <v>93.1</v>
+        <v>90.3</v>
       </c>
       <c r="DH18">
+        <v>90</v>
+      </c>
+      <c r="DI18">
         <v>91.6</v>
       </c>
+      <c r="DJ18">
+        <v>90.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1113000000</v>
       </c>
@@ -6535,46 +6637,52 @@
         <v>88.4</v>
       </c>
       <c r="CV19">
-        <v>91.4</v>
+        <v>91.1</v>
       </c>
       <c r="CW19">
-        <v>88.3</v>
+        <v>89.1</v>
       </c>
       <c r="CX19">
-        <v>88.9</v>
+        <v>89.9</v>
       </c>
       <c r="CY19">
-        <v>93.9</v>
+        <v>94.1</v>
       </c>
       <c r="CZ19">
-        <v>91.2</v>
+        <v>91.6</v>
       </c>
       <c r="DA19">
-        <v>89</v>
+        <v>90.2</v>
       </c>
       <c r="DB19">
-        <v>94.1</v>
+        <v>91.9</v>
       </c>
       <c r="DC19">
-        <v>91</v>
+        <v>91.3</v>
       </c>
       <c r="DD19">
-        <v>90.7</v>
+        <v>91.3</v>
       </c>
       <c r="DE19">
+        <v>92.4</v>
+      </c>
+      <c r="DF19">
+        <v>91.3</v>
+      </c>
+      <c r="DG19">
+        <v>92.4</v>
+      </c>
+      <c r="DH19">
+        <v>92.2</v>
+      </c>
+      <c r="DI19">
+        <v>93</v>
+      </c>
+      <c r="DJ19">
         <v>92.8</v>
       </c>
-      <c r="DF19">
-        <v>91.1</v>
-      </c>
-      <c r="DG19">
-        <v>92</v>
-      </c>
-      <c r="DH19">
-        <v>92.5</v>
-      </c>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1115000000</v>
       </c>
@@ -6873,46 +6981,52 @@
         <v>90.8</v>
       </c>
       <c r="CV20">
-        <v>91.5</v>
+        <v>90.7</v>
       </c>
       <c r="CW20">
-        <v>89.9</v>
+        <v>89.3</v>
       </c>
       <c r="CX20">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="CY20">
+        <v>93.3</v>
+      </c>
+      <c r="CZ20">
+        <v>92.2</v>
+      </c>
+      <c r="DA20">
+        <v>93.9</v>
+      </c>
+      <c r="DB20">
+        <v>94.6</v>
+      </c>
+      <c r="DC20">
         <v>93.6</v>
       </c>
-      <c r="CZ20">
-        <v>90.6</v>
-      </c>
-      <c r="DA20">
+      <c r="DD20">
+        <v>92</v>
+      </c>
+      <c r="DE20">
+        <v>92.4</v>
+      </c>
+      <c r="DF20">
+        <v>92.8</v>
+      </c>
+      <c r="DG20">
+        <v>93.2</v>
+      </c>
+      <c r="DH20">
         <v>94.3</v>
       </c>
-      <c r="DB20">
-        <v>95</v>
-      </c>
-      <c r="DC20">
-        <v>93.7</v>
-      </c>
-      <c r="DD20">
-        <v>91.5</v>
-      </c>
-      <c r="DE20">
-        <v>92</v>
-      </c>
-      <c r="DF20">
-        <v>92.7</v>
-      </c>
-      <c r="DG20">
-        <v>94.2</v>
-      </c>
-      <c r="DH20">
-        <v>94.8</v>
+      <c r="DI20">
+        <v>94.3</v>
+      </c>
+      <c r="DJ20">
+        <v>94.1</v>
       </c>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1115100000</v>
       </c>
@@ -7211,46 +7325,52 @@
         <v>86.4</v>
       </c>
       <c r="CV21">
-        <v>85.8</v>
+        <v>84.5</v>
       </c>
       <c r="CW21">
-        <v>87.5</v>
+        <v>85</v>
       </c>
       <c r="CX21">
-        <v>87.7</v>
+        <v>86</v>
       </c>
       <c r="CY21">
-        <v>87.2</v>
+        <v>86.1</v>
       </c>
       <c r="CZ21">
-        <v>86</v>
+        <v>87.4</v>
       </c>
       <c r="DA21">
         <v>87.7</v>
       </c>
       <c r="DB21">
+        <v>89.2</v>
+      </c>
+      <c r="DC21">
+        <v>88.8</v>
+      </c>
+      <c r="DD21">
+        <v>89.7</v>
+      </c>
+      <c r="DE21">
+        <v>89.3</v>
+      </c>
+      <c r="DF21">
+        <v>88.1</v>
+      </c>
+      <c r="DG21">
+        <v>88.3</v>
+      </c>
+      <c r="DH21">
+        <v>90</v>
+      </c>
+      <c r="DI21">
         <v>89.4</v>
       </c>
-      <c r="DC21">
-        <v>88.2</v>
-      </c>
-      <c r="DD21">
-        <v>89.5</v>
-      </c>
-      <c r="DE21">
-        <v>88.5</v>
-      </c>
-      <c r="DF21">
-        <v>87</v>
-      </c>
-      <c r="DG21">
-        <v>89.4</v>
-      </c>
-      <c r="DH21">
-        <v>90.8</v>
+      <c r="DJ21">
+        <v>88.8</v>
       </c>
     </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1115600000</v>
       </c>
@@ -7549,46 +7669,52 @@
         <v>94.5</v>
       </c>
       <c r="CV22">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="CW22">
-        <v>91.6</v>
+        <v>91.8</v>
       </c>
       <c r="CX22">
         <v>97.6</v>
       </c>
       <c r="CY22">
-        <v>98.2</v>
+        <v>97.9</v>
       </c>
       <c r="CZ22">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DA22">
+        <v>98</v>
+      </c>
+      <c r="DB22">
+        <v>97.9</v>
+      </c>
+      <c r="DC22">
+        <v>97.4</v>
+      </c>
+      <c r="DD22">
+        <v>93.6</v>
+      </c>
+      <c r="DE22">
+        <v>95</v>
+      </c>
+      <c r="DF22">
+        <v>96.7</v>
+      </c>
+      <c r="DG22">
         <v>98.7</v>
       </c>
-      <c r="DB22">
-        <v>98.6</v>
-      </c>
-      <c r="DC22">
-        <v>97.3</v>
-      </c>
-      <c r="DD22">
-        <v>93.4</v>
-      </c>
-      <c r="DE22">
-        <v>94.1</v>
-      </c>
-      <c r="DF22">
-        <v>96.8</v>
-      </c>
-      <c r="DG22">
-        <v>98.1</v>
-      </c>
       <c r="DH22">
-        <v>97.8</v>
+        <v>97.5</v>
+      </c>
+      <c r="DI22">
+        <v>97</v>
+      </c>
+      <c r="DJ22">
+        <v>97.4</v>
       </c>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4100100000</v>
       </c>
@@ -7887,46 +8013,52 @@
         <v>94.4</v>
       </c>
       <c r="CV23">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="CW23">
-        <v>94.3</v>
+        <v>95.1</v>
       </c>
       <c r="CX23">
-        <v>99.3</v>
+        <v>98.3</v>
       </c>
       <c r="CY23">
-        <v>101.8</v>
+        <v>99.1</v>
       </c>
       <c r="CZ23">
-        <v>90.3</v>
+        <v>90.9</v>
       </c>
       <c r="DA23">
-        <v>97.7</v>
+        <v>96.6</v>
       </c>
       <c r="DB23">
-        <v>95.1</v>
+        <v>94.5</v>
       </c>
       <c r="DC23">
-        <v>88.5</v>
+        <v>89</v>
       </c>
       <c r="DD23">
-        <v>78.3</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="DE23">
-        <v>87.3</v>
+        <v>89.2</v>
       </c>
       <c r="DF23">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="DG23">
-        <v>98.3</v>
+        <v>97</v>
       </c>
       <c r="DH23">
-        <v>93.2</v>
+        <v>92.1</v>
+      </c>
+      <c r="DI23">
+        <v>96</v>
+      </c>
+      <c r="DJ23">
+        <v>93.3</v>
       </c>
     </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4100200000</v>
       </c>
@@ -8225,46 +8357,52 @@
         <v>91.1</v>
       </c>
       <c r="CV24">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="CW24">
-        <v>91.6</v>
+        <v>91.8</v>
       </c>
       <c r="CX24">
+        <v>93.9</v>
+      </c>
+      <c r="CY24">
+        <v>94.3</v>
+      </c>
+      <c r="CZ24">
+        <v>94.4</v>
+      </c>
+      <c r="DA24">
+        <v>95.2</v>
+      </c>
+      <c r="DB24">
+        <v>95</v>
+      </c>
+      <c r="DC24">
+        <v>95.1</v>
+      </c>
+      <c r="DD24">
+        <v>95.3</v>
+      </c>
+      <c r="DE24">
         <v>94.6</v>
       </c>
-      <c r="CY24">
-        <v>95</v>
-      </c>
-      <c r="CZ24">
-        <v>94.6</v>
-      </c>
-      <c r="DA24">
-        <v>95.7</v>
-      </c>
-      <c r="DB24">
-        <v>95.1</v>
-      </c>
-      <c r="DC24">
-        <v>94.9</v>
-      </c>
-      <c r="DD24">
-        <v>94.9</v>
-      </c>
-      <c r="DE24">
-        <v>93.8</v>
-      </c>
       <c r="DF24">
-        <v>94.9</v>
+        <v>95.3</v>
       </c>
       <c r="DG24">
-        <v>95.1</v>
+        <v>95.5</v>
       </c>
       <c r="DH24">
-        <v>94.3</v>
+        <v>94.2</v>
+      </c>
+      <c r="DI24">
+        <v>92.4</v>
+      </c>
+      <c r="DJ24">
+        <v>90.5</v>
       </c>
     </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4200100000</v>
       </c>
@@ -8563,46 +8701,52 @@
         <v>85.6</v>
       </c>
       <c r="CV25">
-        <v>92.1</v>
+        <v>91</v>
       </c>
       <c r="CW25">
-        <v>92.1</v>
+        <v>91.6</v>
       </c>
       <c r="CX25">
-        <v>92</v>
+        <v>92.2</v>
       </c>
       <c r="CY25">
-        <v>102.1</v>
+        <v>100.9</v>
       </c>
       <c r="CZ25">
-        <v>97.4</v>
+        <v>97.1</v>
       </c>
       <c r="DA25">
-        <v>99.3</v>
+        <v>98.6</v>
       </c>
       <c r="DB25">
         <v>98.1</v>
       </c>
       <c r="DC25">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="DD25">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
       <c r="DE25">
-        <v>100.2</v>
+        <v>99.3</v>
       </c>
       <c r="DF25">
-        <v>102</v>
+        <v>101.4</v>
       </c>
       <c r="DG25">
-        <v>99.1</v>
+        <v>99.6</v>
       </c>
       <c r="DH25">
-        <v>103</v>
+        <v>101.9</v>
+      </c>
+      <c r="DI25">
+        <v>98.9</v>
+      </c>
+      <c r="DJ25">
+        <v>99.9</v>
       </c>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>4300001000</v>
       </c>
@@ -8901,46 +9045,52 @@
         <v>96.6</v>
       </c>
       <c r="CV26">
-        <v>104.1</v>
+        <v>100.5</v>
       </c>
       <c r="CW26">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="CX26">
-        <v>101.6</v>
+        <v>97.4</v>
       </c>
       <c r="CY26">
-        <v>100.4</v>
+        <v>97.9</v>
       </c>
       <c r="CZ26">
+        <v>91.1</v>
+      </c>
+      <c r="DA26">
+        <v>90</v>
+      </c>
+      <c r="DB26">
+        <v>82.7</v>
+      </c>
+      <c r="DC26">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="DD26">
+        <v>76.5</v>
+      </c>
+      <c r="DE26">
+        <v>86.7</v>
+      </c>
+      <c r="DF26">
+        <v>82.2</v>
+      </c>
+      <c r="DG26">
+        <v>82.5</v>
+      </c>
+      <c r="DH26">
         <v>90.6</v>
       </c>
-      <c r="DA26">
-        <v>89.6</v>
-      </c>
-      <c r="DB26">
-        <v>80</v>
-      </c>
-      <c r="DC26">
-        <v>78.3</v>
-      </c>
-      <c r="DD26">
-        <v>74.3</v>
-      </c>
-      <c r="DE26">
-        <v>88.1</v>
-      </c>
-      <c r="DF26">
-        <v>82.3</v>
-      </c>
-      <c r="DG26">
-        <v>81.7</v>
-      </c>
-      <c r="DH26">
-        <v>93.8</v>
+      <c r="DI26">
+        <v>85.3</v>
+      </c>
+      <c r="DJ26">
+        <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>4300002000</v>
       </c>
@@ -9239,46 +9389,52 @@
         <v>96.5</v>
       </c>
       <c r="CV27">
-        <v>96.8</v>
+        <v>97.6</v>
       </c>
       <c r="CW27">
-        <v>87.3</v>
+        <v>89.7</v>
       </c>
       <c r="CX27">
-        <v>98.4</v>
+        <v>100.5</v>
       </c>
       <c r="CY27">
-        <v>96.6</v>
+        <v>99.9</v>
       </c>
       <c r="CZ27">
-        <v>76.599999999999994</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="DA27">
-        <v>90.4</v>
+        <v>91.2</v>
       </c>
       <c r="DB27">
-        <v>91</v>
+        <v>88.3</v>
       </c>
       <c r="DC27">
-        <v>74</v>
+        <v>73.8</v>
       </c>
       <c r="DD27">
-        <v>54.7</v>
+        <v>52.2</v>
       </c>
       <c r="DE27">
-        <v>67.900000000000006</v>
+        <v>65</v>
       </c>
       <c r="DF27">
-        <v>94.8</v>
+        <v>93.6</v>
       </c>
       <c r="DG27">
-        <v>95.1</v>
+        <v>95.8</v>
       </c>
       <c r="DH27">
-        <v>80.900000000000006</v>
+        <v>81.7</v>
+      </c>
+      <c r="DI27">
+        <v>92.7</v>
+      </c>
+      <c r="DJ27">
+        <v>87.2</v>
       </c>
     </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:114" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>4300003000</v>
       </c>
@@ -9577,43 +9733,49 @@
         <v>86.3</v>
       </c>
       <c r="CV28">
-        <v>87.4</v>
+        <v>88</v>
       </c>
       <c r="CW28">
-        <v>87.1</v>
+        <v>87.9</v>
       </c>
       <c r="CX28">
-        <v>92.9</v>
+        <v>92.6</v>
       </c>
       <c r="CY28">
-        <v>94.2</v>
+        <v>94.5</v>
       </c>
       <c r="CZ28">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="DA28">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DB28">
-        <v>92</v>
+        <v>92.2</v>
       </c>
       <c r="DC28">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="DD28">
-        <v>100.4</v>
+        <v>99.6</v>
       </c>
       <c r="DE28">
-        <v>96.1</v>
+        <v>95.6</v>
       </c>
       <c r="DF28">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="DG28">
-        <v>94.9</v>
+        <v>94.5</v>
       </c>
       <c r="DH28">
-        <v>87.3</v>
+        <v>87.9</v>
+      </c>
+      <c r="DI28">
+        <v>87.7</v>
+      </c>
+      <c r="DJ28">
+        <v>81.7</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/158/METI/IIPD/ngsm1e.xlsx
+++ b/INTLINE/data/158/METI/IIPD/ngsm1e.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01D6779F-81F1-4AC2-8B11-C9ACFEDEC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B828DD4-5157-4197-B10B-228B87ACFDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11325" xr2:uid="{2A702242-B60B-4121-8201-38E32DF0F29C}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{E7AA4335-73C0-49D4-953E-745CE61A6DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Ratio" sheetId="2" r:id="rId1"/>
@@ -481,22 +481,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10394405-F0D2-4E3A-B408-84AB1C45B20A}">
-  <dimension ref="A1:DJ28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5823D48-3605-4425-9697-F447A7989E32}">
+  <dimension ref="A1:DK28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="114" width="12.625" customWidth="1"/>
+    <col min="1" max="115" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:115" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -833,8 +833,11 @@
       <c r="DJ2">
         <v>2022000303</v>
       </c>
+      <c r="DK2">
+        <v>2022000404</v>
+      </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1177,8 +1180,11 @@
       <c r="DJ3">
         <v>202203</v>
       </c>
+      <c r="DK3">
+        <v>202204</v>
+      </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1100000000</v>
       </c>
@@ -1521,8 +1527,11 @@
       <c r="DJ4">
         <v>92.7</v>
       </c>
+      <c r="DK4">
+        <v>92.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1101000000</v>
       </c>
@@ -1865,8 +1874,11 @@
       <c r="DJ5">
         <v>94.4</v>
       </c>
+      <c r="DK5">
+        <v>94.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1101100000</v>
       </c>
@@ -2209,8 +2221,11 @@
       <c r="DJ6">
         <v>92.1</v>
       </c>
+      <c r="DK6">
+        <v>91.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1101200000</v>
       </c>
@@ -2553,8 +2568,11 @@
       <c r="DJ7">
         <v>100.5</v>
       </c>
+      <c r="DK7">
+        <v>100.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1102000000</v>
       </c>
@@ -2897,8 +2915,11 @@
       <c r="DJ8">
         <v>88.7</v>
       </c>
+      <c r="DK8">
+        <v>90.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1103000000</v>
       </c>
@@ -3241,8 +3262,11 @@
       <c r="DJ9">
         <v>92.1</v>
       </c>
+      <c r="DK9">
+        <v>89.8</v>
+      </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1104000000</v>
       </c>
@@ -3585,8 +3609,11 @@
       <c r="DJ10">
         <v>110.1</v>
       </c>
+      <c r="DK10">
+        <v>111.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1105000000</v>
       </c>
@@ -3929,8 +3956,11 @@
       <c r="DJ11">
         <v>95.6</v>
       </c>
+      <c r="DK11">
+        <v>109.8</v>
+      </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1106000000</v>
       </c>
@@ -4273,8 +4303,11 @@
       <c r="DJ12">
         <v>94.8</v>
       </c>
+      <c r="DK12">
+        <v>94</v>
+      </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1106100000</v>
       </c>
@@ -4617,8 +4650,11 @@
       <c r="DJ13">
         <v>96.5</v>
       </c>
+      <c r="DK13">
+        <v>93.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1106200000</v>
       </c>
@@ -4961,8 +4997,11 @@
       <c r="DJ14">
         <v>93.3</v>
       </c>
+      <c r="DK14">
+        <v>95.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1107000000</v>
       </c>
@@ -5305,8 +5344,11 @@
       <c r="DJ15">
         <v>88.1</v>
       </c>
+      <c r="DK15">
+        <v>88</v>
+      </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1108000000</v>
       </c>
@@ -5649,8 +5691,11 @@
       <c r="DJ16">
         <v>88.9</v>
       </c>
+      <c r="DK16">
+        <v>91.9</v>
+      </c>
     </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1109000000</v>
       </c>
@@ -5993,8 +6038,11 @@
       <c r="DJ17">
         <v>89.4</v>
       </c>
+      <c r="DK17">
+        <v>90.6</v>
+      </c>
     </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1111000000</v>
       </c>
@@ -6337,8 +6385,11 @@
       <c r="DJ18">
         <v>90.7</v>
       </c>
+      <c r="DK18">
+        <v>94.4</v>
+      </c>
     </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1113000000</v>
       </c>
@@ -6681,8 +6732,11 @@
       <c r="DJ19">
         <v>92.8</v>
       </c>
+      <c r="DK19">
+        <v>94.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1115000000</v>
       </c>
@@ -7025,8 +7079,11 @@
       <c r="DJ20">
         <v>94.1</v>
       </c>
+      <c r="DK20">
+        <v>89</v>
+      </c>
     </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1115100000</v>
       </c>
@@ -7369,8 +7426,11 @@
       <c r="DJ21">
         <v>88.8</v>
       </c>
+      <c r="DK21">
+        <v>86.7</v>
+      </c>
     </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1115600000</v>
       </c>
@@ -7713,8 +7773,11 @@
       <c r="DJ22">
         <v>97.4</v>
       </c>
+      <c r="DK22">
+        <v>90.1</v>
+      </c>
     </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4100100000</v>
       </c>
@@ -8057,8 +8120,11 @@
       <c r="DJ23">
         <v>93.3</v>
       </c>
+      <c r="DK23">
+        <v>93.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4100200000</v>
       </c>
@@ -8401,8 +8467,11 @@
       <c r="DJ24">
         <v>90.5</v>
       </c>
+      <c r="DK24">
+        <v>90.9</v>
+      </c>
     </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4200100000</v>
       </c>
@@ -8745,8 +8814,11 @@
       <c r="DJ25">
         <v>99.9</v>
       </c>
+      <c r="DK25">
+        <v>98.9</v>
+      </c>
     </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>4300001000</v>
       </c>
@@ -9089,8 +9161,11 @@
       <c r="DJ26">
         <v>89</v>
       </c>
+      <c r="DK26">
+        <v>85.6</v>
+      </c>
     </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>4300002000</v>
       </c>
@@ -9433,8 +9508,11 @@
       <c r="DJ27">
         <v>87.2</v>
       </c>
+      <c r="DK27">
+        <v>87</v>
+      </c>
     </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:115" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>4300003000</v>
       </c>
@@ -9776,6 +9854,9 @@
       </c>
       <c r="DJ28">
         <v>81.7</v>
+      </c>
+      <c r="DK28">
+        <v>83.8</v>
       </c>
     </row>
   </sheetData>
